--- a/swings/2021-11-22/BINANCE_SPOT_FARM_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_FARM_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>134.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -763,6 +776,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -815,6 +829,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -867,6 +882,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -919,6 +935,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,6 +990,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O10" t="n">
+        <v>131.7</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1025,6 +1045,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1079,6 +1100,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>133.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1133,6 +1157,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>132.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1214,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>133.4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1345,6 +1379,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1399,6 +1434,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>132.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1451,6 +1489,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1503,6 +1542,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1557,6 +1597,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1654,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O22" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1719,6 +1768,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1771,6 +1823,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1825,6 +1878,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1879,6 +1935,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1931,6 +1990,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1985,6 +2045,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>127.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2102,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>128.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2091,6 +2157,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2143,6 +2210,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2197,6 +2265,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>125.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2249,6 +2320,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2301,6 +2373,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2353,6 +2426,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2407,6 +2481,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2461,6 +2538,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2515,6 +2595,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2569,6 +2652,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2621,6 +2707,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2675,6 +2762,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2729,6 +2819,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2783,6 +2876,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2837,6 +2933,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>128.6</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2891,6 +2990,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2945,6 +3047,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2999,6 +3104,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>129.1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3051,6 +3159,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3105,6 +3214,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3157,6 +3269,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3209,6 +3322,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3261,6 +3375,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3315,6 +3430,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>129.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3369,6 +3487,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3421,6 +3542,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3473,6 +3595,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3527,6 +3650,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3579,6 +3705,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3631,6 +3758,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3683,6 +3811,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3737,6 +3866,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3791,6 +3923,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3843,6 +3978,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3897,6 +4033,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>128.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3951,6 +4090,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4005,6 +4147,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>128.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4057,6 +4202,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4109,6 +4255,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4163,6 +4310,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4217,6 +4367,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>128.8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4269,6 +4422,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4323,6 +4477,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4375,6 +4532,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4429,6 +4587,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4481,6 +4642,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4535,6 +4697,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>130.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4589,6 +4754,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O78" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4643,6 +4811,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>128.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4695,6 +4866,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4749,6 +4921,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>125.8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4801,6 +4976,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4853,6 +5029,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4907,6 +5084,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4961,6 +5141,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>129.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5013,6 +5196,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5067,6 +5251,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5121,6 +5308,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5175,6 +5365,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>130.8</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5229,6 +5422,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5281,6 +5477,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5335,6 +5532,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5389,6 +5589,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5443,6 +5646,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>130.7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5497,6 +5703,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5551,6 +5760,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>130.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5605,6 +5817,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5659,6 +5874,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O98" t="n">
+        <v>130.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5713,6 +5931,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5765,6 +5986,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5819,6 +6041,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>131.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5871,6 +6096,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5925,6 +6151,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5977,6 +6206,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6031,6 +6261,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6083,6 +6316,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6135,6 +6369,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6189,6 +6424,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6241,6 +6479,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6295,6 +6534,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>130.1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6349,6 +6591,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6401,6 +6646,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6455,6 +6701,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O113" t="n">
+        <v>130.3</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6507,6 +6756,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6559,6 +6809,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6611,6 +6862,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6665,6 +6917,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6719,6 +6974,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O118" t="n">
+        <v>127.6</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6773,6 +7031,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>126.4</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6827,6 +7088,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>127.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6879,6 +7143,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6933,6 +7198,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>126.5</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6987,6 +7255,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>127.9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7041,6 +7312,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>127.5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7093,6 +7367,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7145,6 +7420,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7199,6 +7475,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O127" t="n">
+        <v>128.9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7253,6 +7532,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>127.2</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7305,6 +7587,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7359,6 +7642,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>129.3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7413,6 +7699,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7467,6 +7756,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>129.7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7519,6 +7811,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7573,6 +7866,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7627,6 +7923,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>129.5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7681,6 +7980,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>127.7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7733,6 +8035,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7787,6 +8090,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O138" t="n">
+        <v>129.4</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7839,6 +8145,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7891,6 +8198,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7945,6 +8253,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O141" t="n">
+        <v>128.4</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7999,6 +8310,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O142" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8051,6 +8365,7 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8105,6 +8420,9 @@
           <t>FARMUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>128.1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8158,6 +8476,9 @@
         <is>
           <t>FARMUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>128.7</v>
       </c>
     </row>
   </sheetData>
